--- a/data/RD/仪表盘-研发组-10-2.xlsx
+++ b/data/RD/仪表盘-研发组-10-2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="18250" windowHeight="7880"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="18250" windowHeight="7880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -42,9 +42,6 @@
     <t>封彦杰</t>
   </si>
   <si>
-    <t>蛋白&amp;医学研发组</t>
-  </si>
-  <si>
     <t>10-2</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>任雪</t>
   </si>
   <si>
-    <t>生物学DNA</t>
-  </si>
-  <si>
     <t>刘江</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>范旭宁</t>
-  </si>
-  <si>
-    <t>转录调控研发组</t>
   </si>
   <si>
     <t>赵玥</t>
@@ -123,13 +114,22 @@
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学DNA组</t>
+  </si>
+  <si>
+    <t>蛋白和医学组</t>
+  </si>
+  <si>
+    <t>转录调控组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +157,41 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -190,10 +218,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -201,9 +232,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,7 +547,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -516,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -540,44 +581,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -598,15 +639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -627,15 +668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -656,15 +697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -685,15 +726,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -714,15 +755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -743,15 +784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -772,15 +813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -801,15 +842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -830,15 +871,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -859,15 +900,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -890,13 +931,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -919,13 +960,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -946,15 +987,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -975,15 +1016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1004,15 +1045,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1033,15 +1074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
         <v>25</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1062,15 +1103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1091,15 +1132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1120,15 +1161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>4</v>

--- a/data/RD/仪表盘-研发组-10-2.xlsx
+++ b/data/RD/仪表盘-研发组-10-2.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jupyter\data\RD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="18250" windowHeight="7880"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>组别</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
   <si>
     <t>总下单数</t>
   </si>
@@ -42,6 +46,9 @@
     <t>封彦杰</t>
   </si>
   <si>
+    <t>蛋白和医学组</t>
+  </si>
+  <si>
     <t>10-2</t>
   </si>
   <si>
@@ -63,6 +70,9 @@
     <t>任雪</t>
   </si>
   <si>
+    <t>生物学DNA组</t>
+  </si>
+  <si>
     <t>刘江</t>
   </si>
   <si>
@@ -90,6 +100,9 @@
     <t>范旭宁</t>
   </si>
   <si>
+    <t>转录调控组</t>
+  </si>
+  <si>
     <t>赵玥</t>
   </si>
   <si>
@@ -106,35 +119,24 @@
   </si>
   <si>
     <t>姚盟成</t>
-  </si>
-  <si>
-    <t>组别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学DNA组</t>
-  </si>
-  <si>
-    <t>蛋白和医学组</t>
-  </si>
-  <si>
-    <t>转录调控组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,43 +146,183 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +335,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,10 +545,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -229,31 +799,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -538,58 +1152,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -610,15 +1227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
+    <row r="3" ht="17.25" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -639,15 +1256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
+    <row r="4" ht="17.25" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -668,15 +1285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="17.25" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -697,15 +1314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
+    <row r="6" ht="17.25" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -726,15 +1343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
+    <row r="7" ht="17.25" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -755,15 +1372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
+    <row r="8" ht="17.25" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -784,15 +1401,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
+    <row r="9" ht="17.25" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -813,15 +1430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
+    <row r="10" ht="17.25" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -842,15 +1459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
+    <row r="11" ht="17.25" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -871,15 +1488,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
+    <row r="12" ht="17.25" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -900,15 +1517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="17.25" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -930,14 +1547,14 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -959,14 +1576,14 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -987,15 +1604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
+    <row r="16" ht="17.25" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1016,15 +1633,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
+    <row r="17" ht="17.25" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1045,15 +1662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+    <row r="18" ht="17.25" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1074,15 +1691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
+    <row r="19" ht="17.25" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1103,15 +1720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
+    <row r="20" ht="17.25" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1132,15 +1749,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.5">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
+    <row r="21" ht="16.5" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1161,15 +1778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="1" t="s">
+    <row r="22" ht="17.25" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1191,8 +1808,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>